--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Marsham/Thomas_Marsham.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Marsham/Thomas_Marsham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Marsham est un entomologiste britannique, né en 1747 et mort en 1819.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne connaît que peu de choses de sa vie. Il se marie avec Miss Symes d’Ufford, Northants, union dont naîtront deux filles. Il est secrétaire à la West India Dock Company durant de nombreuses années. Durant les guerres napoléoniennes, il est officier dans un corps de volontaire en 1802. Il est l’un des membres fondateurs de la Société linnéenne de Londres et son secrétaire de 1788 à 1798 et son trésorier de 1798 à 1816. Il est l’ami de James Francis Stephens (1792-1852), William Kirby (1759-1850) et Alexander Macleay (1767-1848). Ses collections ont été acquises par J.F. Stephens et conservées aujourd’hui au Natural History Museum de Londres, tout comme certains de ses manuscrits.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations on the Phalaena lubricipeda of Linneaus and some other moths allied to it' Transactions of the Linnean Society, 1, 1791, p. 67-75.
 System of Entomology, Hall's Royal Encyclopaedia  (1788), reprinted 1796.
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 29 janvier 2007).</t>
         </is>
